--- a/Formato dati.xlsx
+++ b/Formato dati.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90fc0514de939dfe/Desktop/Vivado_projects/mPMT_DAQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{ADA5B968-2956-4DD5-AFCB-8217FB1EDDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABD63642-1FEA-4062-AF61-9C1AAA25A61B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{ADA5B968-2956-4DD5-AFCB-8217FB1EDDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A22E469E-EC01-49BC-A165-35261EAF86A1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mPMT" sheetId="2" r:id="rId1"/>
@@ -555,6 +555,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -821,31 +825,32 @@
   <dimension ref="C1:AJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C3" sqref="C3:AK15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" customWidth="1"/>
-    <col min="2" max="2" width="1.90625" customWidth="1"/>
-    <col min="4" max="21" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6328125" customWidth="1"/>
-    <col min="23" max="26" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" customWidth="1"/>
+    <col min="4" max="21" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5703125" customWidth="1"/>
+    <col min="23" max="26" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="2.5703125" customWidth="1"/>
     <col min="29" max="30" width="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.90625" customWidth="1"/>
-    <col min="34" max="34" width="2.1796875" customWidth="1"/>
-    <col min="35" max="35" width="3.08984375" customWidth="1"/>
+    <col min="33" max="33" width="2.85546875" customWidth="1"/>
+    <col min="34" max="34" width="2.140625" customWidth="1"/>
+    <col min="35" max="35" width="3.140625" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
@@ -977,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -1026,7 +1031,7 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
     </row>
-    <row r="5" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D5" s="4">
         <v>0</v>
       </c>
@@ -1075,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D6" s="4">
         <v>0</v>
       </c>
@@ -1124,7 +1129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
@@ -1309,7 +1314,7 @@
       </c>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1359,7 @@
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
     </row>
-    <row r="13" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D13" s="4">
         <v>0</v>
       </c>
@@ -1399,7 +1404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D14" s="4">
         <v>0</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +1501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="5:36" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:36" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="21" t="s">
         <v>28</v>
       </c>
@@ -1515,7 +1520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="5:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:36" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <v>0</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="5:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:36" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <v>1</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="5:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:36" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <v>2</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="5:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:36" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <v>3</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="5:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:36" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="5:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:36" x14ac:dyDescent="0.25">
       <c r="U24" s="24" t="s">
         <v>42</v>
       </c>
@@ -1695,7 +1700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="5:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U25" s="24" t="s">
         <v>71</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="5:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U26" s="25" t="s">
         <v>78</v>
       </c>
@@ -1725,7 +1730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="5:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="AH27" t="s">
         <v>52</v>
       </c>
@@ -1733,7 +1738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="5:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:36" x14ac:dyDescent="0.25">
       <c r="AH28" t="s">
         <v>53</v>
       </c>
@@ -1741,7 +1746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="5:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:36" x14ac:dyDescent="0.25">
       <c r="AH29" t="s">
         <v>54</v>
       </c>
@@ -1767,20 +1772,20 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="26" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="35" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="3:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -1957,7 +1962,7 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
     </row>
-    <row r="5" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D5" s="4">
         <v>0</v>
       </c>
@@ -2004,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>0</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -2243,7 +2248,7 @@
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D15" s="4">
         <v>0</v>
       </c>
@@ -2287,12 +2292,12 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
